--- a/angular/src/assets/sampleFiles/ImportTripVasesFromExcelSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportTripVasesFromExcelSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE93FBE2-8E2E-4D16-9CE0-4EBDB6F7DA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBE9F67-D717-4F0C-9ECD-C447393E2408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,18 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Trip Reference*</t>
+    <t>Trip Reference*  رقم الرحلة</t>
   </si>
   <si>
-    <t>Vas Name*</t>
-  </si>
-  <si>
-    <t>Multiple driver</t>
-  </si>
-  <si>
-    <t>Multiple truck</t>
+    <t>Vas Name*   اسم الخدمة المضافة</t>
   </si>
 </sst>
 </file>
@@ -399,13 +394,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -416,29 +411,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/angular/src/assets/sampleFiles/ImportTripVasesFromExcelSampleFile.xlsx
+++ b/angular/src/assets/sampleFiles/ImportTripVasesFromExcelSampleFile.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25428"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FBE9F67-D717-4F0C-9ECD-C447393E2408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AA1FD5-89AA-499B-A07E-DEEA8887A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
